--- a/Ising Experimental Results.xlsx
+++ b/Ising Experimental Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoon\Desktop\Model Counting\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoon\Desktop\IsingThings\Ising\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA921E-3885-488E-80AF-1DBDE3AEE68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA88F7F0-EDA3-40EA-9A22-A5C3D2E6DCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4ED12BDF-4DD8-4779-941F-F48889D9D76D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4ED12BDF-4DD8-4779-941F-F48889D9D76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Square" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
   <si>
     <t>Line Graph</t>
   </si>
@@ -349,6 +349,39 @@
   <si>
     <t>(Reruns for larger lattices)</t>
   </si>
+  <si>
+    <t>Cotengra</t>
+  </si>
+  <si>
+    <t>Failed on sl230s for much larger sizes</t>
+  </si>
+  <si>
+    <t>Reruns on c6420</t>
+  </si>
+  <si>
+    <t>Wrong bc did not contract</t>
+  </si>
+  <si>
+    <t>Wrong bc bad value output</t>
+  </si>
+  <si>
+    <t>Subbed w 133 bc that time was nicer and still worked</t>
+  </si>
+  <si>
+    <t>Correct, but replaced w maxrank 32 treetimeout 60s</t>
+  </si>
+  <si>
+    <t>Also replaced w maxrank 32 and tree_timeout 30s</t>
+  </si>
+  <si>
+    <t>c6420 runs</t>
+  </si>
+  <si>
+    <t>TO FT</t>
+  </si>
+  <si>
+    <t>old 210 run on which I made jvals wrong</t>
+  </si>
 </sst>
 </file>
 
@@ -395,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +481,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>2D nxn Ising Lattice Runtimes (J=1)</a:t>
+              <a:t>2D nxn Ising Lattice Runtimes (J=1) [Not</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Useful]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -804,611 +841,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>DPMC-LG</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Square!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Square!$AO$2:$AO$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3.6495E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8808799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1536699999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.50693E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.6033899999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8935000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.3316999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12078649999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.4759700000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.19526250000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.33527420000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.4809364999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6837339</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.2710585999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-666D-4CDD-9BE6-BE29D3F646F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:idx val="12"/>
+          <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Square!$Z$1</c:f>
+              <c:f>Square!$AR$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MiniC2D</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Square!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Square!$Z$2:$Z$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.20399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.36499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.129</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.4089999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27.876999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.235999999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>95.744</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>88.56</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>131.779</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5B67-4447-9FD5-EEC61275E1D9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>TensorOrder-FT</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Square!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Square!$E$2:$E$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>3.8005590438842697E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.8691711425781198E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.44821691513061501</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1606645584106397E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.6730251312255804E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.3247890472412095E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.107683420181274</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.156518459320068</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.178913593292236</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29470801353454501</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.30604243278503401</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.35207319259643499</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.44077849388122498</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.64949846267700195</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.65451002120971602</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.83114933967590299</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.85979199409484797</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.12326383590698</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6986174583435001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FA8E-49B5-B0E2-0C0CD3ABF424}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>DPMC-LG-pw=0.06</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Square!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Square!$U$2:$U$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.21100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.185</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.19700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.188</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.19800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.219</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.56299999999999994</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.472</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.1270000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.9749999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C436-4BF5-8C79-F5B17EC02296}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Square!$AD$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ApproxMC(Untruncated) [E-6]</c:v>
+                  <c:v>Cotengra</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1416,244 +857,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Square!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Square!$AD$2:$AD$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.75022419500000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>491.57</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1380-43E5-84D8-12DF3F8249FE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Square!$AF$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ApproxMC(Truncated) [E-2]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Square!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Square!$AF$2:$AF$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1594.63</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1380-43E5-84D8-12DF3F8249FE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:v>MiniC2D Rerun</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1665,60 +871,66 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Square!$AQ$2:$AQ$18</c:f>
+              <c:f>Square!$AR$2:$AR$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>1.2407064437866201E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>2.7761459350585898E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>4.3280124664306597E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3999999999999997E-2</c:v>
+                  <c:v>6.5281391143798802E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1999999999999998E-2</c:v>
+                  <c:v>9.4623565673828108E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>1.37510299682617E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14299999999999999</c:v>
+                  <c:v>1.8050909042358398E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19700000000000001</c:v>
+                  <c:v>2.4702072143554601E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43099999999999999</c:v>
+                  <c:v>3.11026573181152E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3069999999999999</c:v>
+                  <c:v>5.4592132568359299E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8559999999999999</c:v>
+                  <c:v>5.7644605636596603E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0670000000000002</c:v>
+                  <c:v>0.458833217620849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58.716999999999999</c:v>
+                  <c:v>0.77400088310241699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>348.38600000000002</c:v>
+                  <c:v>0.67670989036560003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>172.54400000000001</c:v>
+                  <c:v>0.99399256706237704</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>626.33299999999997</c:v>
+                  <c:v>1.50366878509521</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>758.03300000000002</c:v>
+                  <c:v>2.0933635234832701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2741894721984801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.08693170547485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,7 +938,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-19A6-4E47-96C5-97E9F1C39691}"/>
+              <c16:uniqueId val="{00000000-DD37-4C19-8B3F-2764120C150A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1868,6 +1080,162 @@
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
               <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>DPMC-LG</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$A$2:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$AO$2:$AO$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>3.6495E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.8808799999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.1536699999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.50693E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.6033899999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.8935000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.3316999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.12078649999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9.4759700000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.19526250000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.33527420000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.4809364999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.6837339</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>6.2710585999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-666D-4CDD-9BE6-BE29D3F646F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
                 <c:idx val="5"/>
                 <c:order val="4"/>
                 <c:tx>
@@ -2012,6 +1380,176 @@
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
               <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$Z$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MiniC2D</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$A$2:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$Z$2:$Z$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>1.4999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.4999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.6E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.1000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.3E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.20399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.36499999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.129</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.4089999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>27.876999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>33.235999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>95.744</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>88.56</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>131.779</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-5B67-4447-9FD5-EEC61275E1D9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
                 <c:idx val="6"/>
                 <c:order val="6"/>
                 <c:tx>
@@ -2160,6 +1698,714 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-01CF-404A-8BC0-DBE7AA700ABE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:v>TensorOrder-FT</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$A$2:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$E$2:$E$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>3.8005590438842697E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.8691711425781198E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.44821691513061501</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.1606645584106397E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.6730251312255804E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9.3247890472412095E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.107683420181274</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.156518459320068</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.178913593292236</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.29470801353454501</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.30604243278503401</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.35207319259643499</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.44077849388122498</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.64949846267700195</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.65451002120971602</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.83114933967590299</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.85979199409484797</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.12326383590698</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.6986174583435001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-FA8E-49B5-B0E2-0C0CD3ABF424}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:v>DPMC-LG-pw=0.06</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$A$2:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$U$2:$U$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>0.21100000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.17499999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.185</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.17699999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.192</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.19700000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.188</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.19800000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.219</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.27400000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.56299999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.472</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.1270000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>7.9749999999999996</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-C436-4BF5-8C79-F5B17EC02296}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$AD$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ApproxMC(Untruncated) [E-6]</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$A$2:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$AD$2:$AD$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.75022419500000004</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>26.47</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>491.57</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-1380-43E5-84D8-12DF3F8249FE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$AF$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ApproxMC(Truncated) [E-2]</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$A$2:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$AF$2:$AF$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1594.63</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-1380-43E5-84D8-12DF3F8249FE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:v>MiniC2D Rerun</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Square!$AQ$2:$AQ$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>1.4999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.8000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.3999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.1999999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.0999999999999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.14299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.19700000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.43099999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.3069999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.8559999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6.0670000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>58.716999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>348.38600000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>172.54400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>626.33299999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>758.03300000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-19A6-4E47-96C5-97E9F1C39691}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3012,6 +3258,869 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Cotengra</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs TensorOrder</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 2D Ising Runtime Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TensorOrder</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Square!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Square!$AU$2:$AU$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1.7390251159667899E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2405385971069301E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1265974044799798E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3368101119995103E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6927442550659103E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4860334396362305E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5315217971801702E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12811541557312001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15613508224487299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.191518545150756</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.293785810470581</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34446644783019997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39840340614318798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.624533891677856</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60539412498474099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.79406428337097101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85034632682800204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1160850524902299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6631124019622801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.09023737907409</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2140254974365199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5971786975860498</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.3407700061798096</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.958734035491901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.770317077636697</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>133.82011055946299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>272.51322579383799</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>410.67843985557499</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1229.2161681652001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8777-467E-AF7E-7EDD1249E57A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cotengra</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Square!$AY$2:$AY$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2.5858879089355399E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7144680023193301E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4356842041015599E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7653446197509701E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4156780242919896E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7610015869140599E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0225057601928701E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4110326766967701E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.223995685577392</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.204933166503906</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.45307540893554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4457325935363698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79690885543823198</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75566625595092696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.999031782150201</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2937779426574698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.8136546611785</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3210370540618896</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.08693170547485</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.809066534042302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>197.615443706512</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>470.27013754844597</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>969.96200037002495</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>931.98250746726899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1295.1853947639399</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1131.9833345413199</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1823.96723389625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3946.5143237113898</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6551.2224466800599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8777-467E-AF7E-7EDD1249E57A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Square!$AZ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CATN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Square!$AZ$2:$AZ$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>7.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4244-461B-9972-CBEE560FEB5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="654556320"/>
+        <c:axId val="654549432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="654556320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n (grid size)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="654549432"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="654549432"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (secs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="654556320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Random Graph</a:t>
             </a:r>
             <a:r>
@@ -3822,7 +4931,695 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Random Graph'!$T$11:$T$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Random Graph'!$V$11:$V$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6.8504810333251898E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1586112976074205E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13982152938842701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29438042640686002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31726241111755299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93879652023315396</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.03570055961608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.7645568847656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>222.872955322265</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>221.06259703636101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2680-4A6E-9EB1-72C52D0A55BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Random Graph'!$T$11:$T$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Random Graph'!$W$11:$W$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>9300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2680-4A6E-9EB1-72C52D0A55BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Random Graph'!$T$11:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Random Graph'!$X$11:$X$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.26638770103454501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31352686882018999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9845085144042902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.922695159912102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.027346372604301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102.755795717239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.586460113525305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>729.41710901260296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2107.6249856948798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3747.4463412761602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2680-4A6E-9EB1-72C52D0A55BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="652004184"/>
+        <c:axId val="652004544"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Random Graph'!$T$11:$T$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>210</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Random Graph'!$U$11:$U$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-2680-4A6E-9EB1-72C52D0A55BA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="652004184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652004544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="652004544"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652004184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3866,17 +5663,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4413,17 +6200,7 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4582,7 +6359,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5290,6 +7067,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6323,7 +8180,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6350,8 +8207,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6431,6 +8288,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6838,7 +9211,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7354,7 +9727,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7870,19 +10243,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1259114</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>197757</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>3265</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7912,13 +10801,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>913312</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>16148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1633765</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>31388</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7939,6 +10828,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1349829</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1667511</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>26126</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C637074D-57D2-40D4-BA96-6FB8B866D64C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7980,6 +10907,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B051E6-D392-972A-0E24-7B9CA2E5643C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8362,10 +11325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE5F65E-2244-47BA-8771-80FBF4A60E1F}">
-  <dimension ref="A1:AQ61"/>
+  <dimension ref="A1:AZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="AC33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD47" sqref="AD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8402,9 +11365,14 @@
     <col min="41" max="41" width="11.77734375" customWidth="1"/>
     <col min="42" max="42" width="11.109375" customWidth="1"/>
     <col min="43" max="43" width="21.33203125" customWidth="1"/>
+    <col min="44" max="44" width="21.6640625" customWidth="1"/>
+    <col min="46" max="46" width="16.5546875" customWidth="1"/>
+    <col min="47" max="50" width="23.44140625" customWidth="1"/>
+    <col min="51" max="51" width="20" customWidth="1"/>
+    <col min="52" max="52" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -8528,8 +11496,23 @@
       <c r="AQ1" t="s">
         <v>21</v>
       </c>
+      <c r="AR1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8666,8 +11649,20 @@
       <c r="AQ2">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="AR2">
+        <v>1.2407064437866201E-2</v>
+      </c>
+      <c r="AU2">
+        <v>1.7390251159667899E-2</v>
+      </c>
+      <c r="AY2">
+        <v>2.5858879089355399E-3</v>
+      </c>
+      <c r="AZ2">
+        <v>7.3000000000000001E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8804,8 +11799,20 @@
       <c r="AQ3">
         <v>0.02</v>
       </c>
+      <c r="AR3">
+        <v>2.7761459350585898E-3</v>
+      </c>
+      <c r="AU3">
+        <v>2.2405385971069301E-2</v>
+      </c>
+      <c r="AY3">
+        <v>1.7144680023193301E-3</v>
+      </c>
+      <c r="AZ3">
+        <v>1.2999999999999999E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8942,8 +11949,20 @@
       <c r="AQ4">
         <v>2.8000000000000001E-2</v>
       </c>
+      <c r="AR4">
+        <v>4.3280124664306597E-3</v>
+      </c>
+      <c r="AU4">
+        <v>3.1265974044799798E-2</v>
+      </c>
+      <c r="AY4">
+        <v>2.4356842041015599E-3</v>
+      </c>
+      <c r="AZ4">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -9074,8 +12093,20 @@
       <c r="AQ5">
         <v>4.3999999999999997E-2</v>
       </c>
+      <c r="AR5">
+        <v>6.5281391143798802E-3</v>
+      </c>
+      <c r="AU5">
+        <v>4.3368101119995103E-2</v>
+      </c>
+      <c r="AY5">
+        <v>3.7653446197509701E-3</v>
+      </c>
+      <c r="AZ5">
+        <v>5.1999999999999998E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9200,8 +12231,20 @@
       <c r="AQ6">
         <v>5.1999999999999998E-2</v>
       </c>
+      <c r="AR6">
+        <v>9.4623565673828108E-3</v>
+      </c>
+      <c r="AU6">
+        <v>5.6927442550659103E-2</v>
+      </c>
+      <c r="AY6">
+        <v>5.4156780242919896E-3</v>
+      </c>
+      <c r="AZ6">
+        <v>9.4E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9326,8 +12369,20 @@
       <c r="AQ7">
         <v>7.0999999999999994E-2</v>
       </c>
+      <c r="AR7">
+        <v>1.37510299682617E-2</v>
+      </c>
+      <c r="AU7">
+        <v>7.4860334396362305E-2</v>
+      </c>
+      <c r="AY7">
+        <v>7.7610015869140599E-3</v>
+      </c>
+      <c r="AZ7">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -9452,8 +12507,20 @@
       <c r="AQ8">
         <v>0.14299999999999999</v>
       </c>
+      <c r="AR8">
+        <v>1.8050909042358398E-2</v>
+      </c>
+      <c r="AU8">
+        <v>9.5315217971801702E-2</v>
+      </c>
+      <c r="AY8">
+        <v>1.0225057601928701E-2</v>
+      </c>
+      <c r="AZ8">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -9578,8 +12645,20 @@
       <c r="AQ9">
         <v>0.19700000000000001</v>
       </c>
+      <c r="AR9">
+        <v>2.4702072143554601E-2</v>
+      </c>
+      <c r="AU9">
+        <v>0.12811541557312001</v>
+      </c>
+      <c r="AY9">
+        <v>1.4110326766967701E-2</v>
+      </c>
+      <c r="AZ9">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -9697,8 +12776,20 @@
       <c r="AQ10">
         <v>0.43099999999999999</v>
       </c>
+      <c r="AR10">
+        <v>3.11026573181152E-2</v>
+      </c>
+      <c r="AU10">
+        <v>0.15613508224487299</v>
+      </c>
+      <c r="AY10">
+        <v>0.223995685577392</v>
+      </c>
+      <c r="AZ10">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -9816,8 +12907,20 @@
       <c r="AQ11">
         <v>1.3069999999999999</v>
       </c>
+      <c r="AR11">
+        <v>5.4592132568359299E-2</v>
+      </c>
+      <c r="AU11">
+        <v>0.191518545150756</v>
+      </c>
+      <c r="AY11">
+        <v>0.204933166503906</v>
+      </c>
+      <c r="AZ11">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -9924,8 +13027,20 @@
       <c r="AQ12">
         <v>4.8559999999999999</v>
       </c>
+      <c r="AR12">
+        <v>5.7644605636596603E-2</v>
+      </c>
+      <c r="AU12">
+        <v>0.293785810470581</v>
+      </c>
+      <c r="AY12">
+        <v>1.45307540893554</v>
+      </c>
+      <c r="AZ12">
+        <v>0.69</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -10029,8 +13144,20 @@
       <c r="AQ13">
         <v>6.0670000000000002</v>
       </c>
+      <c r="AR13">
+        <v>0.458833217620849</v>
+      </c>
+      <c r="AU13">
+        <v>0.34446644783019997</v>
+      </c>
+      <c r="AY13">
+        <v>8.4457325935363698</v>
+      </c>
+      <c r="AZ13">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -10137,8 +13264,20 @@
       <c r="AQ14">
         <v>58.716999999999999</v>
       </c>
+      <c r="AR14">
+        <v>0.77400088310241699</v>
+      </c>
+      <c r="AU14">
+        <v>0.39840340614318798</v>
+      </c>
+      <c r="AY14">
+        <v>0.79690885543823198</v>
+      </c>
+      <c r="AZ14">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -10245,8 +13384,20 @@
       <c r="AQ15">
         <v>348.38600000000002</v>
       </c>
+      <c r="AR15">
+        <v>0.67670989036560003</v>
+      </c>
+      <c r="AU15">
+        <v>0.624533891677856</v>
+      </c>
+      <c r="AY15">
+        <v>0.75566625595092696</v>
+      </c>
+      <c r="AZ15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -10300,8 +13451,20 @@
       <c r="AQ16">
         <v>172.54400000000001</v>
       </c>
+      <c r="AR16">
+        <v>0.99399256706237704</v>
+      </c>
+      <c r="AU16">
+        <v>0.60539412498474099</v>
+      </c>
+      <c r="AY16">
+        <v>24.999031782150201</v>
+      </c>
+      <c r="AZ16">
+        <v>2.4</v>
+      </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -10352,8 +13515,20 @@
       <c r="AQ17">
         <v>626.33299999999997</v>
       </c>
+      <c r="AR17">
+        <v>1.50366878509521</v>
+      </c>
+      <c r="AU17">
+        <v>0.79406428337097101</v>
+      </c>
+      <c r="AY17">
+        <v>5.2937779426574698</v>
+      </c>
+      <c r="AZ17">
+        <v>3.2</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -10401,8 +13576,20 @@
       <c r="AQ18">
         <v>758.03300000000002</v>
       </c>
+      <c r="AR18">
+        <v>2.0933635234832701</v>
+      </c>
+      <c r="AU18">
+        <v>0.85034632682800204</v>
+      </c>
+      <c r="AY18">
+        <v>15.8136546611785</v>
+      </c>
+      <c r="AZ18">
+        <v>3.1</v>
+      </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -10436,8 +13623,20 @@
         <f t="shared" si="12"/>
         <v>0.94448267215016868</v>
       </c>
+      <c r="AR19">
+        <v>2.2741894721984801</v>
+      </c>
+      <c r="AU19">
+        <v>1.1160850524902299</v>
+      </c>
+      <c r="AY19">
+        <v>6.3210370540618896</v>
+      </c>
+      <c r="AZ19">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -10471,166 +13670,272 @@
         <f t="shared" si="12"/>
         <v>1.0791812460476249</v>
       </c>
+      <c r="AR20">
+        <v>6.08693170547485</v>
+      </c>
+      <c r="AU20">
+        <v>1.6631124019622801</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY20">
+        <v>6.08693170547485</v>
+      </c>
+      <c r="AZ20">
+        <v>5.2</v>
+      </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="AU21">
+        <v>2.09023737907409</v>
+      </c>
+      <c r="AY21">
+        <v>67.809066534042302</v>
+      </c>
+      <c r="AZ21">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU22">
+        <v>4.2140254974365199</v>
+      </c>
+      <c r="AY22">
+        <v>197.615443706512</v>
+      </c>
+      <c r="AZ22">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="AU23">
+        <v>2.5971786975860498</v>
+      </c>
+      <c r="AY23">
+        <v>470.27013754844597</v>
+      </c>
+      <c r="AZ23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="AU24">
+        <v>8.3407700061798096</v>
+      </c>
+      <c r="AX24">
+        <v>11.033390522003099</v>
+      </c>
+      <c r="AY24">
+        <v>969.96200037002495</v>
+      </c>
+      <c r="AZ24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="AU25">
+        <v>25.958734035491901</v>
+      </c>
+      <c r="AX25">
+        <v>19.275516271591101</v>
+      </c>
+      <c r="AY25">
+        <v>931.98250746726899</v>
+      </c>
+      <c r="AZ25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU26">
+        <v>36.770317077636697</v>
+      </c>
+      <c r="AX26">
+        <v>24.784575939178399</v>
+      </c>
+      <c r="AY26">
+        <v>1295.1853947639399</v>
+      </c>
+      <c r="AZ26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="AT27">
+        <v>445.77933502197197</v>
+      </c>
+      <c r="AU27">
+        <v>133.82011055946299</v>
+      </c>
+      <c r="AW27">
+        <v>133.82011055946299</v>
+      </c>
+      <c r="AX27">
+        <v>228.89598774909899</v>
+      </c>
+      <c r="AY27">
+        <v>1131.9833345413199</v>
+      </c>
+      <c r="AZ27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="AU28">
+        <v>272.51322579383799</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW28">
+        <v>60.021834135055499</v>
+      </c>
+      <c r="AX28">
+        <v>321.05875849723799</v>
+      </c>
+      <c r="AY28">
+        <v>1823.96723389625</v>
+      </c>
+      <c r="AZ28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="AU29">
+        <v>410.67843985557499</v>
+      </c>
+      <c r="AV29">
+        <v>803.67340326309204</v>
+      </c>
+      <c r="AW29">
+        <v>60.019694566726599</v>
+      </c>
+      <c r="AX29">
+        <v>60.0203762054443</v>
+      </c>
+      <c r="AY29">
+        <v>3946.5143237113898</v>
+      </c>
+      <c r="AZ29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="AU30">
+        <v>1229.2161681652001</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW30">
+        <v>60.021036624908398</v>
+      </c>
+      <c r="AX30">
+        <v>60.021669149398797</v>
+      </c>
+      <c r="AY30">
+        <v>6551.2224466800599</v>
+      </c>
+      <c r="AZ30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C46" t="s">
         <v>71</v>
-      </c>
-      <c r="D37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
       </c>
       <c r="D46" t="s">
         <v>76</v>
@@ -10639,12 +13944,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
         <v>76</v>
@@ -10653,34 +13958,45 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
         <v>76</v>
@@ -10689,107 +14005,90 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E54" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="F54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" t="s">
-        <v>79</v>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
         <v>62</v>
-      </c>
-      <c r="D54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" t="s">
-        <v>85</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
@@ -10798,12 +14097,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
         <v>76</v>
@@ -10811,7 +14110,116 @@
       <c r="E61" t="s">
         <v>77</v>
       </c>
-      <c r="F61" t="s">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10826,8 +14234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE16F48-3BE5-4571-9830-BB20BDAD1690}">
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19:X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10886,11 +14294,11 @@
         <v>47</v>
       </c>
       <c r="K1" t="str">
-        <f>B1</f>
+        <f t="shared" ref="K1:P1" si="0">B1</f>
         <v>CATN Runtime</v>
       </c>
       <c r="L1" t="str">
-        <f t="shared" ref="L1:P1" si="0">C1</f>
+        <f t="shared" si="0"/>
         <v>TensorOrder LogNorm Runtime</v>
       </c>
       <c r="M1" t="str">
@@ -10962,34 +14370,34 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G3">
-        <f>E3+F3</f>
+        <f t="shared" ref="G3:G8" si="1">E3+F3</f>
         <v>5.9959300000000007E-2</v>
       </c>
       <c r="H3">
         <v>0.108196</v>
       </c>
       <c r="K3">
-        <f>LOG10(B3)</f>
+        <f t="shared" ref="K3:P7" si="2">LOG10(B3)</f>
         <v>-0.3979400086720376</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:P3" si="1">LOG10(C3)</f>
+        <f t="shared" si="2"/>
         <v>-0.91743356805112874</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.0757207139381184</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.7457105948436522</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.3767507096020994</v>
       </c>
       <c r="P3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2221434460024088</v>
       </c>
       <c r="V3">
@@ -11009,11 +14417,11 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="AA3">
-        <f>Y3+Z3</f>
+        <f t="shared" ref="AA3:AA8" si="3">Y3+Z3</f>
         <v>4.6504000000000004E-2</v>
       </c>
       <c r="AB3">
-        <f>LOG10(AA3)</f>
+        <f t="shared" ref="AB3:AB8" si="4">LOG10(AA3)</f>
         <v>-1.3325096900516682</v>
       </c>
       <c r="AC3" t="s">
@@ -11041,34 +14449,34 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G8" si="2">E4+F4</f>
+        <f t="shared" si="1"/>
         <v>6.9787700000000008E-2</v>
       </c>
       <c r="H4">
         <v>2.3683299999999998</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K7" si="3">LOG10(B4)</f>
+        <f t="shared" si="2"/>
         <v>-0.17392519729917355</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L8" si="4">LOG10(C4)</f>
+        <f t="shared" si="2"/>
         <v>-0.79808698409258327</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M8" si="5">LOG10(D4)</f>
+        <f t="shared" si="2"/>
         <v>0.15136985024746041</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N8" si="6">LOG10(E4)</f>
+        <f t="shared" si="2"/>
         <v>-1.6617886132612862</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O8" si="7">LOG10(F4)</f>
+        <f t="shared" si="2"/>
         <v>-1.3187587626244128</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P8" si="8">LOG10(G4)</f>
+        <f t="shared" si="2"/>
         <v>-1.156221114523611</v>
       </c>
       <c r="V4">
@@ -11078,7 +14486,7 @@
         <v>0.63</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X7" si="9">LOG10(W4)</f>
+        <f>LOG10(W4)</f>
         <v>-0.20065945054641829</v>
       </c>
       <c r="Y4">
@@ -11088,11 +14496,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA8" si="10">Y4+Z4</f>
+        <f t="shared" si="3"/>
         <v>6.2309300000000005E-2</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB8" si="11">LOG10(AA4)</f>
+        <f t="shared" si="4"/>
         <v>-1.2054471277027889</v>
       </c>
       <c r="AC4" t="s">
@@ -11101,7 +14509,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" ref="A5:A10" si="12">A4+20</f>
+        <f t="shared" ref="A5:A10" si="5">A4+20</f>
         <v>90</v>
       </c>
       <c r="B5">
@@ -11120,34 +14528,34 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.1056899</v>
       </c>
       <c r="H5">
         <v>10.6615</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.20411998265592479</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>-0.65107468486900044</v>
       </c>
       <c r="M5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.76454971906446723</v>
       </c>
       <c r="N5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-1.4855864079456211</v>
       </c>
       <c r="O5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>-1.1366771398795441</v>
       </c>
       <c r="P5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-0.97596651301279302</v>
       </c>
       <c r="V5">
@@ -11157,7 +14565,7 @@
         <v>1.5</v>
       </c>
       <c r="X5">
-        <f t="shared" si="9"/>
+        <f>LOG10(W5)</f>
         <v>0.17609125905568124</v>
       </c>
       <c r="Y5">
@@ -11167,17 +14575,17 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0.11019909999999999</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>-0.95782195236835188</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="B6">
@@ -11196,34 +14604,34 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.26050440000000002</v>
       </c>
       <c r="H6">
         <v>382.31099999999998</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.77815125038364363</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>-0.41574609958868197</v>
       </c>
       <c r="M6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1.9636272975459963</v>
       </c>
       <c r="N6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-1.5016287870906084</v>
       </c>
       <c r="O6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>-0.64016451766011195</v>
       </c>
       <c r="P6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-0.58418493693419771</v>
       </c>
       <c r="V6">
@@ -11233,7 +14641,7 @@
         <v>5</v>
       </c>
       <c r="X6">
-        <f t="shared" si="9"/>
+        <f>LOG10(W6)</f>
         <v>0.69897000433601886</v>
       </c>
       <c r="Y6">
@@ -11243,17 +14651,17 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0.23477149999999999</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>-0.62935462524375174</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="B7">
@@ -11272,34 +14680,34 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.3533731</v>
       </c>
       <c r="H7">
         <v>573.08500000000004</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.84509804001425681</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>-0.40263188064081024</v>
       </c>
       <c r="M7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1.3313463016525666</v>
       </c>
       <c r="N7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-1.5470932112840485</v>
       </c>
       <c r="O7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>-0.48811663902112562</v>
       </c>
       <c r="P7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-0.45176651359045783</v>
       </c>
       <c r="V7">
@@ -11309,7 +14717,7 @@
         <v>6.1</v>
       </c>
       <c r="X7">
-        <f t="shared" si="9"/>
+        <f>LOG10(W7)</f>
         <v>0.78532983501076703</v>
       </c>
       <c r="Y7">
@@ -11319,17 +14727,17 @@
         <v>0.28199999999999997</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0.31441739999999996</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>-0.50249342791607443</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="C8">
@@ -11345,27 +14753,27 @@
         <v>4.5529999999999999</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5835821999999995</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f>LOG10(C8)</f>
         <v>0.18679529744769183</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
+        <f>LOG10(D8)</f>
         <v>1.9585113251540232</v>
       </c>
       <c r="N8">
-        <f t="shared" si="6"/>
+        <f>LOG10(E8)</f>
         <v>-1.5145312758402059</v>
       </c>
       <c r="O8">
-        <f t="shared" si="7"/>
+        <f>LOG10(F8)</f>
         <v>0.65829765030818976</v>
       </c>
       <c r="P8">
-        <f t="shared" si="8"/>
+        <f>LOG10(G8)</f>
         <v>0.66120502420716953</v>
       </c>
       <c r="V8">
@@ -11378,17 +14786,17 @@
         <v>3.7309999999999999</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>3.7663525999999998</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0.57592097554949784</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="D9">
@@ -11403,7 +14811,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="E10">
@@ -11411,16 +14819,68 @@
       </c>
       <c r="F10" t="s">
         <v>43</v>
+      </c>
+      <c r="U10" t="s">
+        <v>112</v>
+      </c>
+      <c r="V10" t="s">
+        <v>113</v>
+      </c>
+      <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>50</v>
+      </c>
+      <c r="V11">
+        <v>6.8504810333251898E-2</v>
+      </c>
+      <c r="W11">
+        <v>0.22</v>
+      </c>
+      <c r="X11">
+        <v>0.26638770103454501</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
+      <c r="T12">
+        <f>T11+20</f>
+        <v>70</v>
+      </c>
+      <c r="V12">
+        <v>9.1586112976074205E-2</v>
+      </c>
+      <c r="W12">
+        <v>0.33</v>
+      </c>
+      <c r="X12">
+        <v>0.31352686882018999</v>
+      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>50</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ref="T13:T23" si="6">T12+20</f>
+        <v>90</v>
+      </c>
+      <c r="V13">
+        <v>0.13982152938842701</v>
+      </c>
+      <c r="W13">
+        <v>0.81</v>
+      </c>
+      <c r="X13">
+        <v>2.9845085144042902</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
@@ -11428,98 +14888,210 @@
         <f>A13+20</f>
         <v>70</v>
       </c>
+      <c r="T14">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="V14">
+        <v>0.29438042640686002</v>
+      </c>
+      <c r="W14">
+        <v>2.8</v>
+      </c>
+      <c r="X14">
+        <v>39.922695159912102</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" ref="A15:A20" si="13">A14+20</f>
+        <f t="shared" ref="A15:A20" si="7">A14+20</f>
         <v>90</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="V15">
+        <v>0.31726241111755299</v>
+      </c>
+      <c r="W15">
+        <v>3.8</v>
+      </c>
+      <c r="X15">
+        <v>15.027346372604301</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
+      <c r="T16">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="V16">
+        <v>0.93879652023315396</v>
+      </c>
+      <c r="W16" s="3">
+        <v>290</v>
+      </c>
+      <c r="X16">
+        <v>102.755795717239</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
+      <c r="T17">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="V17">
+        <v>2.03570055961608</v>
+      </c>
+      <c r="W17" s="3">
+        <v>290</v>
+      </c>
+      <c r="X17">
+        <v>66.586460113525305</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
+      <c r="T18">
+        <f t="shared" si="6"/>
+        <v>190</v>
+      </c>
+      <c r="V18">
+        <v>28.7645568847656</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X18">
+        <v>729.41710901260296</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>170</v>
       </c>
+      <c r="T19">
+        <f>T18+20</f>
+        <v>210</v>
+      </c>
+      <c r="V19">
+        <v>222.872955322265</v>
+      </c>
+      <c r="W19" s="3">
+        <v>9100</v>
+      </c>
+      <c r="X19">
+        <v>2107.6249856948798</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
+      <c r="T20">
+        <f t="shared" si="6"/>
+        <v>230</v>
+      </c>
+      <c r="X20">
+        <v>3747.4463412761602</v>
+      </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
+      <c r="T22">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>50</v>
       </c>
+      <c r="T23">
+        <f t="shared" si="6"/>
+        <v>290</v>
+      </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>A23+20</f>
         <v>70</v>
       </c>
+      <c r="T24" t="s">
+        <v>114</v>
+      </c>
+      <c r="V24">
+        <v>221.06259703636101</v>
+      </c>
+      <c r="W24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="X24">
+        <v>5497.6892991065897</v>
+      </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" ref="A25:A30" si="14">A24+20</f>
+        <f t="shared" ref="A25:A30" si="8">A24+20</f>
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
